--- a/biology/Neurosciences/Courbure_céphalique/Courbure_céphalique.xlsx
+++ b/biology/Neurosciences/Courbure_céphalique/Courbure_céphalique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Courbure_c%C3%A9phalique</t>
+          <t>Courbure_céphalique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La courbure céphalique est la première inflexion du cerveau à apparaître pendant le développement de l'embryon humain. Entre la quatrième et la cinquième semaine, le prosencéphale s'incline en direction ventrale pour finir sous le mésencéphale. La courbure céphalique est l'une des trois courbures à apparaître pendant la période de la quatrième à la huitième semaine, les deux autres étant les courbures cervicale et pontine. Elle occupe à un moment du développement la position du sommet de la tête et constitue la proéminence mésencéphalique.
 </t>
